--- a/assets/template/Transmital.xlsx
+++ b/assets/template/Transmital.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/shopdrawing/assets/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopdrawing\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD891618-C480-7748-880E-6E302AD7D78D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20505" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="7 AGUSTUS  (20)" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Kepada   :</t>
   </si>
@@ -143,16 +142,27 @@
   <si>
     <t>Nama  Shop  Drawing</t>
   </si>
+  <si>
+    <t>PROYEK</t>
+  </si>
+  <si>
+    <t>Pembangunan Jalan Tol Batang - Semarang
+(STA. 377+500 - 414+300)</t>
+  </si>
+  <si>
+    <t>PENGAJUAN
+SHOP DRAWING</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +245,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -866,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -885,9 +907,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1079,6 +1099,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1102,9 +1158,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1232,244 +1285,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>123120</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>267398</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>338298</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7203370" y="560916"/>
-          <a:ext cx="2335028" cy="751049"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="brightRoom" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="plastic"/>
-        <a:extLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="36576" rIns="45720" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="500"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="id-ID" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="500"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>PENGAJUAN</a:t>
-          </a:r>
-          <a:endParaRPr lang="id-ID" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="500"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="id-ID" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="600"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="600"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>SHOP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t> DRAWING</a:t>
-          </a:r>
-          <a:endParaRPr lang="id-ID" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="500"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="700"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="800"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="600"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>43</xdr:row>
@@ -1486,7 +1301,7 @@
         <xdr:cNvPr id="3" name="Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1357,7 @@
         <xdr:cNvPr id="4" name="Rectangle 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1413,7 @@
         <xdr:cNvPr id="5" name="Rectangle 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1654,7 +1469,7 @@
         <xdr:cNvPr id="6" name="Rectangle 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1710,7 +1525,7 @@
         <xdr:cNvPr id="7" name="Rectangle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1581,7 @@
         <xdr:cNvPr id="8" name="Rectangle 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1822,7 +1637,7 @@
         <xdr:cNvPr id="9" name="Rectangle 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1878,7 +1693,7 @@
         <xdr:cNvPr id="10" name="Rectangle 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1934,7 +1749,7 @@
         <xdr:cNvPr id="11" name="Rectangle 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,7 +1805,7 @@
         <xdr:cNvPr id="12" name="Rectangle 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +1861,7 @@
         <xdr:cNvPr id="13" name="Rectangle 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +1917,7 @@
         <xdr:cNvPr id="14" name="Rectangle 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2158,7 +1973,7 @@
         <xdr:cNvPr id="15" name="Rectangle 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2214,7 +2029,7 @@
         <xdr:cNvPr id="16" name="Text Box 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2103,7 @@
         <xdr:cNvPr id="17" name="Rectangle 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,7 +2152,7 @@
         <xdr:cNvPr id="18" name="Rectangle 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2370,136 +2185,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>207434</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>243417</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectangle 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3017309" y="484716"/>
-          <a:ext cx="3685116" cy="730251"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr indent="457200" algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>PROYEK</a:t>
-          </a:r>
-          <a:endParaRPr lang="id-ID" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr indent="457200" algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr indent="457200" algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="900"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Pembangunan Jalan Tol Batang - Semarang</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr indent="457200" algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="900"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>(STA. 377+500 - 414+300)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
       <xdr:row>41</xdr:row>
@@ -2516,7 +2201,7 @@
         <xdr:cNvPr id="20" name="Rectangle 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,22 +2235,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>80433</xdr:colOff>
+      <xdr:colOff>147108</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>182033</xdr:rowOff>
+      <xdr:rowOff>77258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>86783</xdr:colOff>
+      <xdr:colOff>153458</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>175683</xdr:rowOff>
+      <xdr:rowOff>61383</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="21" name="Picture 16" descr="logonew2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,8 +2273,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6671733" y="582083"/>
-          <a:ext cx="825500" cy="565150"/>
+          <a:off x="6709833" y="477308"/>
+          <a:ext cx="815975" cy="669925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2621,80 +2306,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>177800</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>182030</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>120649</xdr:rowOff>
+      <xdr:rowOff>73024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>358753</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>243415</xdr:rowOff>
+      <xdr:rowOff>110065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="23" name="Picture 3" descr="Logo Virama Karya.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2717,8 +2347,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2991905" y="520699"/>
-          <a:ext cx="491048" cy="694266"/>
+          <a:off x="2972855" y="473074"/>
+          <a:ext cx="491048" cy="703791"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2746,6 +2376,50 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>174173</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>273504</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="764723" y="470807"/>
+          <a:ext cx="2118631" cy="691219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3015,31 +2689,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="4.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.5" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" customWidth="1"/>
-    <col min="14" max="19" width="4.6640625" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" customWidth="1"/>
-    <col min="21" max="21" width="5.5" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" customWidth="1"/>
-    <col min="23" max="23" width="3.6640625" customWidth="1"/>
-    <col min="24" max="25" width="4.6640625" customWidth="1"/>
-    <col min="26" max="26" width="8.6640625" customWidth="1"/>
-    <col min="27" max="27" width="0.5" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="9" width="4.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="19" width="4.7109375" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" customWidth="1"/>
+    <col min="22" max="22" width="4.7109375" customWidth="1"/>
+    <col min="23" max="23" width="3.7109375" customWidth="1"/>
+    <col min="24" max="25" width="4.7109375" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" customWidth="1"/>
+    <col min="27" max="27" width="0.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="17" thickBot="1">
+    <row r="2" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3067,7 +2743,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="2:27" ht="23" customHeight="1" thickTop="1">
+    <row r="3" spans="2:27" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3080,8 +2756,10 @@
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="N3" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="96"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="7"/>
@@ -3089,174 +2767,178 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="W3" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
       <c r="AA3" s="8"/>
     </row>
-    <row r="4" spans="2:27" ht="23" customHeight="1">
-      <c r="B4" s="100"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="11"/>
+    <row r="4" spans="2:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="110"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="100"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="11"/>
-    </row>
-    <row r="5" spans="2:27" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B5" s="103"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="14"/>
-    </row>
-    <row r="6" spans="2:27" ht="19" customHeight="1" thickTop="1">
-      <c r="B6" s="15" t="s">
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="10"/>
+    </row>
+    <row r="5" spans="2:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="113"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="12"/>
+    </row>
+    <row r="6" spans="2:27" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17" t="s">
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="18"/>
+      <c r="U6" s="16"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="19"/>
-    </row>
-    <row r="7" spans="2:27" ht="19" customHeight="1">
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21" t="s">
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="17"/>
+    </row>
+    <row r="7" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22" t="s">
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="24"/>
-    </row>
-    <row r="8" spans="2:27" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B8" s="25" t="s">
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="22"/>
+    </row>
+    <row r="8" spans="2:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="107">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="116">
         <v>43319</v>
       </c>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26" t="s">
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="108" t="s">
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="108"/>
-      <c r="AA8" s="109"/>
-    </row>
-    <row r="9" spans="2:27" ht="30" customHeight="1">
-      <c r="B9" s="28" t="s">
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="117"/>
+      <c r="Z8" s="117"/>
+      <c r="AA8" s="118"/>
+    </row>
+    <row r="9" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3285,10 +2967,10 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="11"/>
-    </row>
-    <row r="10" spans="2:27" ht="19" customHeight="1">
-      <c r="B10" s="28"/>
+      <c r="AA9" s="10"/>
+    </row>
+    <row r="10" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="26"/>
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
@@ -3315,10 +2997,10 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="11"/>
-    </row>
-    <row r="11" spans="2:27" ht="19" customHeight="1">
-      <c r="B11" s="28"/>
+      <c r="AA10" s="10"/>
+    </row>
+    <row r="11" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="26"/>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
@@ -3345,937 +3027,937 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="11"/>
-    </row>
-    <row r="12" spans="2:27" ht="19" customHeight="1">
-      <c r="B12" s="29"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="11"/>
-    </row>
-    <row r="13" spans="2:27" ht="19" customHeight="1">
-      <c r="B13" s="30" t="s">
+      <c r="AA11" s="10"/>
+    </row>
+    <row r="12" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="119"/>
+      <c r="V12" s="119"/>
+      <c r="W12" s="119"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="119"/>
+      <c r="Z12" s="119"/>
+      <c r="AA12" s="10"/>
+    </row>
+    <row r="13" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="113" t="s">
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="114"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="114"/>
-      <c r="U13" s="115"/>
-      <c r="V13" s="113" t="s">
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="124"/>
+      <c r="V13" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="W13" s="115"/>
-      <c r="X13" s="116" t="s">
+      <c r="W13" s="124"/>
+      <c r="X13" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="117"/>
-      <c r="AA13" s="118"/>
-    </row>
-    <row r="14" spans="2:27" ht="19" customHeight="1">
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="120"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="37"/>
-    </row>
-    <row r="15" spans="2:27" ht="19" customHeight="1">
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="119"/>
-      <c r="W15" s="120"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="37"/>
-    </row>
-    <row r="16" spans="2:27" ht="19" customHeight="1">
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="119"/>
-      <c r="W16" s="120"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="43"/>
-    </row>
-    <row r="17" spans="2:27" ht="19" customHeight="1">
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="119"/>
-      <c r="W17" s="120"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="43"/>
-    </row>
-    <row r="18" spans="2:27" ht="19" customHeight="1">
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="119"/>
-      <c r="W18" s="120"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="43"/>
-    </row>
-    <row r="19" spans="2:27" ht="19" customHeight="1">
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="98"/>
-      <c r="W19" s="99"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="43"/>
-    </row>
-    <row r="20" spans="2:27" ht="19" customHeight="1">
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="98"/>
-      <c r="W20" s="99"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="43"/>
-    </row>
-    <row r="21" spans="2:27" ht="19" customHeight="1">
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="98"/>
-      <c r="W21" s="99"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="43"/>
-    </row>
-    <row r="22" spans="2:27" ht="19" customHeight="1">
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="99"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="43"/>
-    </row>
-    <row r="23" spans="2:27" ht="19" customHeight="1">
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="99"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="43"/>
-    </row>
-    <row r="24" spans="2:27" ht="19" customHeight="1">
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="99"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="43"/>
-    </row>
-    <row r="25" spans="2:27" ht="19" customHeight="1">
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="99"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="43"/>
-    </row>
-    <row r="26" spans="2:27" ht="19" customHeight="1">
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="99"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="50"/>
-    </row>
-    <row r="27" spans="2:27" ht="19" customHeight="1">
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="99"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="50"/>
-    </row>
-    <row r="28" spans="2:27" ht="19" customHeight="1">
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="98"/>
-      <c r="W28" s="99"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="50"/>
-    </row>
-    <row r="29" spans="2:27" ht="19" customHeight="1">
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="98"/>
-      <c r="W29" s="99"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="50"/>
-    </row>
-    <row r="30" spans="2:27" ht="19" customHeight="1">
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="98"/>
-      <c r="W30" s="99"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="50"/>
-    </row>
-    <row r="31" spans="2:27" ht="19" customHeight="1">
-      <c r="B31" s="51"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="98"/>
-      <c r="W31" s="99"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="50"/>
-    </row>
-    <row r="32" spans="2:27" ht="19" customHeight="1">
-      <c r="B32" s="51"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="98"/>
-      <c r="W32" s="99"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="50"/>
-    </row>
-    <row r="33" spans="2:27" ht="19" customHeight="1">
-      <c r="B33" s="53"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="98"/>
-      <c r="W33" s="99"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="50"/>
-    </row>
-    <row r="34" spans="2:27" ht="19" customHeight="1" thickBot="1">
-      <c r="B34" s="129" t="s">
+      <c r="Y13" s="126"/>
+      <c r="Z13" s="126"/>
+      <c r="AA13" s="127"/>
+    </row>
+    <row r="14" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="128"/>
+      <c r="W14" s="129"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="35"/>
+    </row>
+    <row r="15" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="35"/>
+    </row>
+    <row r="16" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="41"/>
+    </row>
+    <row r="17" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="41"/>
+    </row>
+    <row r="18" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="129"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="41"/>
+    </row>
+    <row r="19" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="108"/>
+      <c r="W19" s="109"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="41"/>
+    </row>
+    <row r="20" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="109"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="41"/>
+    </row>
+    <row r="21" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="108"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="41"/>
+    </row>
+    <row r="22" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="41"/>
+    </row>
+    <row r="23" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="108"/>
+      <c r="W23" s="109"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="41"/>
+    </row>
+    <row r="24" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="108"/>
+      <c r="W24" s="109"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="41"/>
+    </row>
+    <row r="25" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="108"/>
+      <c r="W25" s="109"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="41"/>
+    </row>
+    <row r="26" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="109"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="48"/>
+    </row>
+    <row r="27" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="108"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="48"/>
+    </row>
+    <row r="28" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="108"/>
+      <c r="W28" s="109"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="48"/>
+    </row>
+    <row r="29" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="108"/>
+      <c r="W29" s="109"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="48"/>
+    </row>
+    <row r="30" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="108"/>
+      <c r="W30" s="109"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="48"/>
+    </row>
+    <row r="31" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="108"/>
+      <c r="W31" s="109"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="48"/>
+    </row>
+    <row r="32" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="108"/>
+      <c r="W32" s="109"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="48"/>
+    </row>
+    <row r="33" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="51"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="108"/>
+      <c r="W33" s="109"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="48"/>
+    </row>
+    <row r="34" spans="2:27" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="130"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="130"/>
-      <c r="M34" s="130"/>
-      <c r="N34" s="130"/>
-      <c r="O34" s="130"/>
-      <c r="P34" s="130"/>
-      <c r="Q34" s="130"/>
-      <c r="R34" s="130"/>
-      <c r="S34" s="130"/>
-      <c r="T34" s="130"/>
-      <c r="U34" s="130"/>
-      <c r="V34" s="130"/>
-      <c r="W34" s="130"/>
-      <c r="X34" s="130"/>
-      <c r="Y34" s="130"/>
-      <c r="Z34" s="130"/>
-      <c r="AA34" s="131"/>
-    </row>
-    <row r="35" spans="2:27" ht="19" customHeight="1">
-      <c r="B35" s="132" t="s">
+      <c r="C34" s="139"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="139"/>
+      <c r="J34" s="139"/>
+      <c r="K34" s="139"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="139"/>
+      <c r="N34" s="139"/>
+      <c r="O34" s="139"/>
+      <c r="P34" s="139"/>
+      <c r="Q34" s="139"/>
+      <c r="R34" s="139"/>
+      <c r="S34" s="139"/>
+      <c r="T34" s="139"/>
+      <c r="U34" s="139"/>
+      <c r="V34" s="139"/>
+      <c r="W34" s="139"/>
+      <c r="X34" s="139"/>
+      <c r="Y34" s="139"/>
+      <c r="Z34" s="139"/>
+      <c r="AA34" s="140"/>
+    </row>
+    <row r="35" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="133"/>
-      <c r="D35" s="133"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="133"/>
-      <c r="K35" s="133"/>
-      <c r="L35" s="133"/>
-      <c r="M35" s="133"/>
-      <c r="N35" s="133"/>
-      <c r="O35" s="134"/>
-      <c r="P35" s="135" t="s">
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="142"/>
+      <c r="J35" s="142"/>
+      <c r="K35" s="142"/>
+      <c r="L35" s="142"/>
+      <c r="M35" s="142"/>
+      <c r="N35" s="142"/>
+      <c r="O35" s="143"/>
+      <c r="P35" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="Q35" s="133"/>
-      <c r="R35" s="133"/>
-      <c r="S35" s="133"/>
-      <c r="T35" s="133"/>
-      <c r="U35" s="133"/>
-      <c r="V35" s="133"/>
-      <c r="W35" s="133"/>
-      <c r="X35" s="133"/>
-      <c r="Y35" s="133"/>
-      <c r="Z35" s="133"/>
-      <c r="AA35" s="136"/>
-    </row>
-    <row r="36" spans="2:27" ht="19" customHeight="1" thickBot="1">
-      <c r="B36" s="137" t="s">
+      <c r="Q35" s="142"/>
+      <c r="R35" s="142"/>
+      <c r="S35" s="142"/>
+      <c r="T35" s="142"/>
+      <c r="U35" s="142"/>
+      <c r="V35" s="142"/>
+      <c r="W35" s="142"/>
+      <c r="X35" s="142"/>
+      <c r="Y35" s="142"/>
+      <c r="Z35" s="142"/>
+      <c r="AA35" s="145"/>
+    </row>
+    <row r="36" spans="2:27" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="138"/>
-      <c r="D36" s="139"/>
-      <c r="E36" s="140" t="s">
+      <c r="C36" s="147"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="139"/>
-      <c r="G36" s="138"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="138"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="138"/>
-      <c r="M36" s="138"/>
-      <c r="N36" s="138"/>
-      <c r="O36" s="139"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="57" t="s">
+      <c r="F36" s="148"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="147"/>
+      <c r="K36" s="147"/>
+      <c r="L36" s="147"/>
+      <c r="M36" s="147"/>
+      <c r="N36" s="147"/>
+      <c r="O36" s="148"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="R36" s="57"/>
-      <c r="S36" s="140" t="s">
+      <c r="R36" s="55"/>
+      <c r="S36" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="T36" s="139"/>
-      <c r="U36" s="140" t="s">
+      <c r="T36" s="148"/>
+      <c r="U36" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="V36" s="138"/>
-      <c r="W36" s="138"/>
-      <c r="X36" s="138"/>
-      <c r="Y36" s="138"/>
-      <c r="Z36" s="138"/>
-      <c r="AA36" s="141"/>
-    </row>
-    <row r="37" spans="2:27" ht="19" customHeight="1">
-      <c r="B37" s="58"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="60"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="62"/>
-    </row>
-    <row r="38" spans="2:27" ht="19" customHeight="1">
-      <c r="B38" s="58"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="60"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="62"/>
-    </row>
-    <row r="39" spans="2:27" ht="19" customHeight="1">
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="60"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="60"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="62"/>
-    </row>
-    <row r="40" spans="2:27" ht="19" customHeight="1" thickBot="1">
-      <c r="B40" s="64"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="65"/>
-      <c r="R40" s="65"/>
-      <c r="S40" s="66"/>
-      <c r="T40" s="65"/>
-      <c r="U40" s="66"/>
-      <c r="V40" s="65"/>
-      <c r="W40" s="65"/>
-      <c r="X40" s="65"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="65"/>
-      <c r="AA40" s="68"/>
-    </row>
-    <row r="41" spans="2:27" ht="19" customHeight="1">
-      <c r="B41" s="69"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="70"/>
-      <c r="O41" s="70"/>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="70"/>
-      <c r="R41" s="70"/>
-      <c r="S41" s="70"/>
-      <c r="T41" s="70"/>
-      <c r="U41" s="70"/>
-      <c r="V41" s="70"/>
-      <c r="W41" s="70"/>
-      <c r="X41" s="70"/>
-      <c r="Y41" s="70"/>
-      <c r="Z41" s="70"/>
-      <c r="AA41" s="71"/>
-    </row>
-    <row r="42" spans="2:27" ht="19" customHeight="1">
-      <c r="B42" s="72"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="74" t="s">
+      <c r="V36" s="147"/>
+      <c r="W36" s="147"/>
+      <c r="X36" s="147"/>
+      <c r="Y36" s="147"/>
+      <c r="Z36" s="147"/>
+      <c r="AA36" s="150"/>
+    </row>
+    <row r="37" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="56"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="57"/>
+      <c r="W37" s="57"/>
+      <c r="X37" s="57"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="60"/>
+    </row>
+    <row r="38" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="56"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="58"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="58"/>
+      <c r="V38" s="57"/>
+      <c r="W38" s="57"/>
+      <c r="X38" s="57"/>
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="57"/>
+      <c r="AA38" s="60"/>
+    </row>
+    <row r="39" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="56"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="57"/>
+      <c r="Y39" s="57"/>
+      <c r="Z39" s="57"/>
+      <c r="AA39" s="60"/>
+    </row>
+    <row r="40" spans="2:27" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="62"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="64"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="64"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="63"/>
+      <c r="AA40" s="66"/>
+    </row>
+    <row r="41" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="67"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="69"/>
+    </row>
+    <row r="42" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="70"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="74" t="s">
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="73"/>
-      <c r="R42" s="73"/>
-      <c r="S42" s="74" t="s">
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="T42" s="73"/>
-      <c r="U42" s="73"/>
-      <c r="V42" s="73"/>
-      <c r="W42" s="73"/>
-      <c r="X42" s="73"/>
-      <c r="Y42" s="73"/>
-      <c r="Z42" s="73"/>
-      <c r="AA42" s="75"/>
-    </row>
-    <row r="43" spans="2:27" ht="19" customHeight="1" thickBot="1">
-      <c r="B43" s="76"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
-      <c r="P43" s="77"/>
-      <c r="Q43" s="77"/>
-      <c r="R43" s="77"/>
-      <c r="S43" s="77"/>
-      <c r="T43" s="77"/>
-      <c r="U43" s="77"/>
-      <c r="V43" s="77"/>
-      <c r="W43" s="77"/>
-      <c r="X43" s="77"/>
-      <c r="Y43" s="77"/>
-      <c r="Z43" s="77"/>
-      <c r="AA43" s="14"/>
-    </row>
-    <row r="44" spans="2:27" ht="19" customHeight="1" thickTop="1">
-      <c r="B44" s="28"/>
+      <c r="T42" s="71"/>
+      <c r="U42" s="71"/>
+      <c r="V42" s="71"/>
+      <c r="W42" s="71"/>
+      <c r="X42" s="71"/>
+      <c r="Y42" s="71"/>
+      <c r="Z42" s="71"/>
+      <c r="AA42" s="73"/>
+    </row>
+    <row r="43" spans="2:27" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="74"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="75"/>
+      <c r="O43" s="75"/>
+      <c r="P43" s="75"/>
+      <c r="Q43" s="75"/>
+      <c r="R43" s="75"/>
+      <c r="S43" s="75"/>
+      <c r="T43" s="75"/>
+      <c r="U43" s="75"/>
+      <c r="V43" s="75"/>
+      <c r="W43" s="75"/>
+      <c r="X43" s="75"/>
+      <c r="Y43" s="75"/>
+      <c r="Z43" s="75"/>
+      <c r="AA43" s="12"/>
+    </row>
+    <row r="44" spans="2:27" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="26"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4289,7 +3971,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
-      <c r="P44" s="78"/>
+      <c r="P44" s="76"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
@@ -4300,10 +3982,10 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
-      <c r="AA44" s="11"/>
-    </row>
-    <row r="45" spans="2:27" ht="19" customHeight="1">
-      <c r="B45" s="28"/>
+      <c r="AA44" s="10"/>
+    </row>
+    <row r="45" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="26"/>
       <c r="C45" s="1" t="s">
         <v>23</v>
       </c>
@@ -4316,12 +3998,12 @@
       <c r="J45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K45" s="79"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="81"/>
-      <c r="P45" s="82"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="78"/>
+      <c r="N45" s="78"/>
+      <c r="O45" s="79"/>
+      <c r="P45" s="80"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -4330,15 +4012,15 @@
       <c r="V45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W45" s="18"/>
+      <c r="W45" s="16"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
-      <c r="AA45" s="11"/>
-    </row>
-    <row r="46" spans="2:27" ht="19" customHeight="1">
-      <c r="B46" s="28"/>
-      <c r="C46" s="83" t="s">
+      <c r="AA45" s="10"/>
+    </row>
+    <row r="46" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="26"/>
+      <c r="C46" s="81" t="s">
         <v>26</v>
       </c>
       <c r="D46" s="1"/>
@@ -4353,8 +4035,8 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="82"/>
-      <c r="Q46" s="83" t="s">
+      <c r="P46" s="80"/>
+      <c r="Q46" s="81" t="s">
         <v>27</v>
       </c>
       <c r="R46" s="1"/>
@@ -4366,14 +4048,14 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
-      <c r="AA46" s="11"/>
-    </row>
-    <row r="47" spans="2:27" ht="19" customHeight="1">
+      <c r="AA46" s="10"/>
+    </row>
+    <row r="47" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
-      <c r="C47" s="84" t="s">
+      <c r="C47" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="85"/>
+      <c r="D47" s="83"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -4387,8 +4069,8 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="82"/>
-      <c r="Q47" s="83" t="s">
+      <c r="P47" s="80"/>
+      <c r="Q47" s="81" t="s">
         <v>30</v>
       </c>
       <c r="R47" s="1"/>
@@ -4400,12 +4082,12 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
-      <c r="AA47" s="11"/>
-    </row>
-    <row r="48" spans="2:27" ht="19" customHeight="1">
+      <c r="AA47" s="10"/>
+    </row>
+    <row r="48" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="85"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="83"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -4417,7 +4099,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="82"/>
+      <c r="P48" s="80"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -4427,12 +4109,12 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
-      <c r="AA48" s="11"/>
-    </row>
-    <row r="49" spans="2:27" ht="19" customHeight="1">
-      <c r="B49" s="86"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="85"/>
+      <c r="AA48" s="10"/>
+    </row>
+    <row r="49" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="84"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="83"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -4444,8 +4126,8 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="83"/>
+      <c r="P49" s="80"/>
+      <c r="Q49" s="81"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -4455,12 +4137,12 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
-      <c r="AA49" s="11"/>
-    </row>
-    <row r="50" spans="2:27" ht="19" customHeight="1">
-      <c r="B50" s="86"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
+      <c r="AA49" s="10"/>
+    </row>
+    <row r="50" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="84"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -4472,7 +4154,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="82"/>
+      <c r="P50" s="80"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
@@ -4483,14 +4165,14 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
-      <c r="AA50" s="11"/>
-    </row>
-    <row r="51" spans="2:27" ht="19" customHeight="1">
-      <c r="B51" s="86"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
+      <c r="AA50" s="10"/>
+    </row>
+    <row r="51" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="84"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="131"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -4500,7 +4182,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
-      <c r="P51" s="82"/>
+      <c r="P51" s="80"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -4511,26 +4193,26 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
-      <c r="AA51" s="11"/>
-    </row>
-    <row r="52" spans="2:27" ht="19" customHeight="1">
-      <c r="B52" s="86"/>
-      <c r="C52" s="123" t="s">
+      <c r="AA51" s="10"/>
+    </row>
+    <row r="52" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="84"/>
+      <c r="C52" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="123"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
-      <c r="G52" s="123"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="132"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
-      <c r="P52" s="82"/>
+      <c r="P52" s="80"/>
       <c r="Q52" s="1" t="s">
         <v>32</v>
       </c>
@@ -4543,127 +4225,127 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
-      <c r="AA52" s="11"/>
-    </row>
-    <row r="53" spans="2:27" ht="19" customHeight="1">
-      <c r="B53" s="87"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="90"/>
-      <c r="N53" s="90"/>
-      <c r="O53" s="91"/>
-      <c r="P53" s="90"/>
-      <c r="Q53" s="90"/>
-      <c r="R53" s="90"/>
-      <c r="S53" s="92"/>
-      <c r="T53" s="90"/>
-      <c r="U53" s="90"/>
-      <c r="V53" s="90"/>
-      <c r="W53" s="90"/>
-      <c r="X53" s="90"/>
-      <c r="Y53" s="90"/>
-      <c r="Z53" s="90"/>
-      <c r="AA53" s="93"/>
-    </row>
-    <row r="54" spans="2:27" ht="19" customHeight="1">
-      <c r="B54" s="124" t="s">
+      <c r="AA52" s="10"/>
+    </row>
+    <row r="53" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="85"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
+      <c r="K53" s="88"/>
+      <c r="L53" s="88"/>
+      <c r="M53" s="88"/>
+      <c r="N53" s="88"/>
+      <c r="O53" s="89"/>
+      <c r="P53" s="88"/>
+      <c r="Q53" s="88"/>
+      <c r="R53" s="88"/>
+      <c r="S53" s="90"/>
+      <c r="T53" s="88"/>
+      <c r="U53" s="88"/>
+      <c r="V53" s="88"/>
+      <c r="W53" s="88"/>
+      <c r="X53" s="88"/>
+      <c r="Y53" s="88"/>
+      <c r="Z53" s="88"/>
+      <c r="AA53" s="91"/>
+    </row>
+    <row r="54" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="125"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="125"/>
-      <c r="J54" s="125"/>
-      <c r="K54" s="125"/>
-      <c r="L54" s="125"/>
-      <c r="M54" s="125"/>
-      <c r="N54" s="125"/>
-      <c r="O54" s="125"/>
-      <c r="P54" s="125"/>
-      <c r="Q54" s="125"/>
-      <c r="R54" s="125"/>
-      <c r="S54" s="125"/>
-      <c r="T54" s="125"/>
-      <c r="U54" s="125"/>
-      <c r="V54" s="125"/>
-      <c r="W54" s="125"/>
-      <c r="X54" s="125"/>
-      <c r="Y54" s="125"/>
-      <c r="Z54" s="125"/>
-      <c r="AA54" s="126"/>
-    </row>
-    <row r="55" spans="2:27" ht="19" customHeight="1">
-      <c r="B55" s="127" t="s">
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="134"/>
+      <c r="I54" s="134"/>
+      <c r="J54" s="134"/>
+      <c r="K54" s="134"/>
+      <c r="L54" s="134"/>
+      <c r="M54" s="134"/>
+      <c r="N54" s="134"/>
+      <c r="O54" s="134"/>
+      <c r="P54" s="134"/>
+      <c r="Q54" s="134"/>
+      <c r="R54" s="134"/>
+      <c r="S54" s="134"/>
+      <c r="T54" s="134"/>
+      <c r="U54" s="134"/>
+      <c r="V54" s="134"/>
+      <c r="W54" s="134"/>
+      <c r="X54" s="134"/>
+      <c r="Y54" s="134"/>
+      <c r="Z54" s="134"/>
+      <c r="AA54" s="135"/>
+    </row>
+    <row r="55" spans="2:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="123"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="123"/>
-      <c r="G55" s="123"/>
-      <c r="H55" s="123"/>
-      <c r="I55" s="123"/>
-      <c r="J55" s="123"/>
-      <c r="K55" s="123"/>
-      <c r="L55" s="123"/>
-      <c r="M55" s="123"/>
-      <c r="N55" s="123"/>
-      <c r="O55" s="123"/>
-      <c r="P55" s="123"/>
-      <c r="Q55" s="123"/>
-      <c r="R55" s="123"/>
-      <c r="S55" s="123"/>
-      <c r="T55" s="123"/>
-      <c r="U55" s="123"/>
-      <c r="V55" s="123"/>
-      <c r="W55" s="123"/>
-      <c r="X55" s="123"/>
-      <c r="Y55" s="123"/>
-      <c r="Z55" s="123"/>
-      <c r="AA55" s="128"/>
-    </row>
-    <row r="56" spans="2:27" ht="19" customHeight="1" thickBot="1">
-      <c r="B56" s="94"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="96"/>
-      <c r="I56" s="96"/>
-      <c r="J56" s="96"/>
-      <c r="K56" s="96"/>
-      <c r="L56" s="96"/>
-      <c r="M56" s="96"/>
-      <c r="N56" s="96"/>
-      <c r="O56" s="96"/>
-      <c r="P56" s="96"/>
-      <c r="Q56" s="96"/>
-      <c r="R56" s="96"/>
-      <c r="S56" s="96"/>
-      <c r="T56" s="96"/>
-      <c r="U56" s="96"/>
-      <c r="V56" s="96"/>
-      <c r="W56" s="96"/>
-      <c r="X56" s="96"/>
-      <c r="Y56" s="96"/>
-      <c r="Z56" s="96"/>
-      <c r="AA56" s="97"/>
-    </row>
-    <row r="57" spans="2:27" ht="16" thickTop="1"/>
+      <c r="C55" s="132"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="132"/>
+      <c r="F55" s="132"/>
+      <c r="G55" s="132"/>
+      <c r="H55" s="132"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="132"/>
+      <c r="L55" s="132"/>
+      <c r="M55" s="132"/>
+      <c r="N55" s="132"/>
+      <c r="O55" s="132"/>
+      <c r="P55" s="132"/>
+      <c r="Q55" s="132"/>
+      <c r="R55" s="132"/>
+      <c r="S55" s="132"/>
+      <c r="T55" s="132"/>
+      <c r="U55" s="132"/>
+      <c r="V55" s="132"/>
+      <c r="W55" s="132"/>
+      <c r="X55" s="132"/>
+      <c r="Y55" s="132"/>
+      <c r="Z55" s="132"/>
+      <c r="AA55" s="137"/>
+    </row>
+    <row r="56" spans="2:27" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="92"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="94"/>
+      <c r="M56" s="94"/>
+      <c r="N56" s="94"/>
+      <c r="O56" s="94"/>
+      <c r="P56" s="94"/>
+      <c r="Q56" s="94"/>
+      <c r="R56" s="94"/>
+      <c r="S56" s="94"/>
+      <c r="T56" s="94"/>
+      <c r="U56" s="94"/>
+      <c r="V56" s="94"/>
+      <c r="W56" s="94"/>
+      <c r="X56" s="94"/>
+      <c r="Y56" s="94"/>
+      <c r="Z56" s="94"/>
+      <c r="AA56" s="95"/>
+    </row>
+    <row r="57" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="42">
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="C52:I52"/>
     <mergeCell ref="B54:AA54"/>
@@ -4690,9 +4372,10 @@
     <mergeCell ref="V28:W28"/>
     <mergeCell ref="V29:W29"/>
     <mergeCell ref="V30:W30"/>
+    <mergeCell ref="K4:S5"/>
+    <mergeCell ref="W3:Z5"/>
     <mergeCell ref="V19:W19"/>
     <mergeCell ref="B4:J5"/>
-    <mergeCell ref="L4:P4"/>
     <mergeCell ref="E8:L8"/>
     <mergeCell ref="R8:AA8"/>
     <mergeCell ref="C12:Z12"/>
@@ -4710,33 +4393,5 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="StaticMetafile" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>177800</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="StaticMetafile" shapeId="1025" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>